--- a/tests/artifact/data/Invoice.data.xlsx
+++ b/tests/artifact/data/Invoice.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>schema.path</t>
   </si>
@@ -43,6 +43,111 @@
     <t>${data.path}\Schema\Invoice</t>
   </si>
   <si>
+    <t>custid</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>dcdate</t>
+  </si>
+  <si>
+    <t>2049-04-01</t>
+  </si>
+  <si>
+    <t>dcflag</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>taxstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
+    <t>roundoffflag</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>consigneename</t>
+  </si>
+  <si>
+    <t>Retail Customer (Default)</t>
+  </si>
+  <si>
+    <t>issuername</t>
+  </si>
+  <si>
+    <t>AccionLabs</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>modeoftransport</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>inoutflag</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>taxflag</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>delchaltotal</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>dateofsupply</t>
+  </si>
+  <si>
+    <t>goid</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>inv.valid</t>
   </si>
   <si>
@@ -73,12 +178,6 @@
     <t>4,16</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>discount flag</t>
   </si>
   <si>
@@ -139,9 +238,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>veh.no</t>
   </si>
   <si>
@@ -151,15 +247,9 @@
     <t>mode.transport</t>
   </si>
   <si>
-    <t>Road</t>
-  </si>
-  <si>
     <t>packages</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>io.flag.valid</t>
   </si>
   <si>
@@ -244,9 +334,6 @@
     <t>content.valid</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>content.tax.value</t>
   </si>
   <si>
@@ -256,9 +343,6 @@
     <t>valid.cess</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>valid.value</t>
   </si>
   <si>
@@ -281,6 +365,63 @@
   </si>
   <si>
     <t>CESS</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>list,listdeleted,list</t>
+  </si>
+  <si>
+    <t>orderflag</t>
+  </si>
+  <si>
+    <t>0,1,0</t>
+  </si>
+  <si>
+    <t>flag.Invoice</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>todate</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>invtype</t>
+  </si>
+  <si>
+    <t>invid</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>cancel.invid</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>InputDate</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>unbilledtype</t>
+  </si>
+  <si>
+    <t>invoice,rejectionnote</t>
   </si>
 </sst>
 </file>
@@ -289,8 +430,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -322,6 +463,103 @@
       <color rgb="FFF8F9FA"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -334,28 +572,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -363,22 +579,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,80 +609,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,8 +837,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,54 +863,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,12 +892,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,130 +954,130 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1167,27 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1052,25 +1207,11 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1382,10 +1523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1405,15 +1546,15 @@
       </c>
     </row>
     <row r="2" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1421,15 +1562,15 @@
       </c>
     </row>
     <row r="4" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1437,10 +1578,10 @@
       </c>
     </row>
     <row r="6" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1448,12 +1589,12 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1461,7 +1602,7 @@
       </c>
     </row>
     <row r="9" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1469,80 +1610,82 @@
       </c>
     </row>
     <row r="10" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1566,7 +1709,7 @@
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1582,237 +1725,375 @@
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="23.1" customHeight="1" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="23.1" customHeight="1" spans="1:2">
       <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" ht="23.1" customHeight="1" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" ht="23.1" customHeight="1" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="23.1" customHeight="1" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="23.1" customHeight="1" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="23.1" customHeight="1" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="23.1" customHeight="1" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="23.1" customHeight="1" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="23.1" customHeight="1" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="23.1" customHeight="1" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="23.1" customHeight="1" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="23.1" customHeight="1" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="23.1" customHeight="1" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" ht="23.1" customHeight="1" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="23.1" customHeight="1" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="23.1" customHeight="1" spans="1:2">
       <c r="A42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="67" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A70" s="5"/>
+    <row r="46" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="71" ht="23.1" customHeight="1" spans="1:1">
       <c r="A71" s="5"/>
@@ -1898,103 +2179,157 @@
     <row r="98" ht="23.1" customHeight="1" spans="1:1">
       <c r="A98" s="5"/>
     </row>
+    <row r="99" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A116" s="5"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0" objects="1"/>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A6,LEN("//"))="//"</formula>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A7,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="beginsWith" dxfId="3" priority="23" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A12,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="beginsWith" dxfId="0" priority="23" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="26" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B30">
     <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="28">
-      <formula>LEN(TRIM(B12))&gt;0</formula>
+      <formula>LEN(TRIM(B30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="13" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="11" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A2,LEN("//"))="//"</formula>
+  <conditionalFormatting sqref="A20:A23">
+    <cfRule type="beginsWith" dxfId="0" priority="11" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="12" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="14" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B20:B23">
     <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
+      <formula>LEN(TRIM(B20))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
+  <conditionalFormatting sqref="B24:B25">
     <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="22">
-      <formula>LEN(TRIM(B6))&gt;0</formula>
+      <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A8:A11 A13:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="29" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A1:A19 A26:A29 A31:A1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="29" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1 C2:E7 B13:E1048576 C12:E12 B8:E11">
+  <conditionalFormatting sqref="B1:E19 C20:E25 B26:E29 C30:E30 B31:E1048576">
     <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>

--- a/tests/artifact/data/Invoice.data.xlsx
+++ b/tests/artifact/data/Invoice.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
   <si>
     <t>schema.path</t>
   </si>
@@ -187,7 +187,7 @@
     <t>valid.narration</t>
   </si>
   <si>
-    <t>Sold goods worth Rupees 11550 to ACCION LABS INDIA PRIVATE LIMITED by cash, ref invoice no. 1/SL-24</t>
+    <t>Sold goods worth Rupees 47 to Retail Supplier (Default) by cash, ref invoice no. 22/SL-23</t>
   </si>
   <si>
     <t>asdv</t>
@@ -214,7 +214,7 @@
     <t>cs.state</t>
   </si>
   <si>
-    <t>Telangana</t>
+    <t>Maharashtra</t>
   </si>
   <si>
     <t>cs.statecode</t>
@@ -232,7 +232,7 @@
     <t>issue.name</t>
   </si>
   <si>
-    <t>WM_admin</t>
+    <t>Accion</t>
   </si>
   <si>
     <t>role</t>
@@ -328,7 +328,7 @@
     <t>invoice.word</t>
   </si>
   <si>
-    <t>Eleven Thousand Five Hundred Fifty Rupees</t>
+    <t>Forty Seven Rupees</t>
   </si>
   <si>
     <t>content.valid</t>
@@ -340,9 +340,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>valid.cess</t>
-  </si>
-  <si>
     <t>valid.value</t>
   </si>
   <si>
@@ -422,17 +419,83 @@
   </si>
   <si>
     <t>invoice,rejectionnote</t>
+  </si>
+  <si>
+    <t>invoicedate</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>consigneestatecode</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>productcode</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>lastprice</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>paymentmode</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>invoicetotal</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>invoiceno</t>
+  </si>
+  <si>
+    <t>/SL-23</t>
+  </si>
+  <si>
+    <t>dcno</t>
+  </si>
+  <si>
+    <t>/DOUT-49</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>orgtype</t>
+  </si>
+  <si>
+    <t>For Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,6 +531,136 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -482,136 +675,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -625,49 +688,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,133 +856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,24 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -863,6 +908,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,17 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,15 +956,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,153 +974,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,52 +1178,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1525,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A82" sqref="$A82:$XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1977,87 +2040,87 @@
     </row>
     <row r="56" ht="23.1" customHeight="1" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="23.1" customHeight="1" spans="1:2">
       <c r="A57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="58" ht="23.1" customHeight="1" spans="1:2">
       <c r="A58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" ht="23.1" customHeight="1" spans="1:2">
       <c r="A59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" ht="23.1" customHeight="1" spans="1:2">
       <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="61" ht="23.1" customHeight="1" spans="1:2">
       <c r="A61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" ht="23.1" customHeight="1" spans="1:2">
       <c r="A62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" ht="23.1" customHeight="1" spans="1:2">
       <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" ht="23.1" customHeight="1" spans="1:2">
       <c r="A64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" ht="23.1" customHeight="1" spans="1:2">
       <c r="A65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" ht="23.1" customHeight="1" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>72</v>
@@ -2065,71 +2128,131 @@
     </row>
     <row r="67" ht="23.1" customHeight="1" spans="1:2">
       <c r="A67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" ht="23.1" customHeight="1" spans="1:2">
       <c r="A68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" ht="23.1" customHeight="1" spans="1:2">
       <c r="A69" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="70" ht="23.1" customHeight="1" spans="1:2">
       <c r="A70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="71" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A82" s="5"/>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="83" ht="23.1" customHeight="1" spans="1:1">
       <c r="A83" s="5"/>
@@ -2236,104 +2359,156 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0" objects="1"/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A24,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="16" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="17" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="18" stopIfTrue="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A25,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="beginsWith" dxfId="0" priority="23" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A30,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="26" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
       <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A81))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A81,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:E81">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
+      <formula>LEN(TRIM(B81))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A82))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A82,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A82,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A82,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B82))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:E82">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
+      <formula>LEN(TRIM(C82))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A23">
-    <cfRule type="beginsWith" dxfId="0" priority="11" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A20,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="12" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="28" stopIfTrue="1">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
       <formula>LEN(TRIM(B20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
       <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 A26:A29 A31:A1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="29" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A1:A19 A26:A29 A31:A80 A83:A1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="46" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E19 C20:E25 B26:E29 C30:E30 B31:E1048576">
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:E19 C20:E25 B26:E29 C30:E30 B31:E80 B83:E1048576">
+    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/data/Invoice.data.xlsx
+++ b/tests/artifact/data/Invoice.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6910" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
   <si>
     <t>schema.path</t>
   </si>
@@ -187,7 +187,7 @@
     <t>valid.narration</t>
   </si>
   <si>
-    <t>Sold goods worth Rupees 11550 to ACCION LABS INDIA PRIVATE LIMITED by cash, ref invoice no. 1/SL-24</t>
+    <t>Sold goods worth Rupees 47 to Retail Supplier (Default) by cash, ref invoice no. 22/SL-23</t>
   </si>
   <si>
     <t>asdv</t>
@@ -214,7 +214,7 @@
     <t>cs.state</t>
   </si>
   <si>
-    <t>Telangana</t>
+    <t>Maharashtra</t>
   </si>
   <si>
     <t>cs.statecode</t>
@@ -232,7 +232,7 @@
     <t>issue.name</t>
   </si>
   <si>
-    <t>WM_admin</t>
+    <t>Accion</t>
   </si>
   <si>
     <t>role</t>
@@ -328,7 +328,7 @@
     <t>invoice.word</t>
   </si>
   <si>
-    <t>Eleven Thousand Five Hundred Fifty Rupees</t>
+    <t>Forty Seven Rupees</t>
   </si>
   <si>
     <t>content.valid</t>
@@ -340,9 +340,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>valid.cess</t>
-  </si>
-  <si>
     <t>valid.value</t>
   </si>
   <si>
@@ -422,6 +419,63 @@
   </si>
   <si>
     <t>invoice,rejectionnote</t>
+  </si>
+  <si>
+    <t>invoicedate</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>consigneestatecode</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>productcode</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>lastprice</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>paymentmode</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>invoicetotal</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>invoiceno</t>
+  </si>
+  <si>
+    <t>/SL-23</t>
+  </si>
+  <si>
+    <t>dcno</t>
+  </si>
+  <si>
+    <t>/DOUT-49</t>
   </si>
 </sst>
 </file>
@@ -429,10 +483,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,6 +522,136 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -482,136 +666,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -625,49 +679,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,133 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,24 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -863,6 +899,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,17 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,15 +947,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,153 +965,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,52 +1169,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1525,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1977,87 +2031,87 @@
     </row>
     <row r="56" ht="23.1" customHeight="1" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="23.1" customHeight="1" spans="1:2">
       <c r="A57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="58" ht="23.1" customHeight="1" spans="1:2">
       <c r="A58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" ht="23.1" customHeight="1" spans="1:2">
       <c r="A59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" ht="23.1" customHeight="1" spans="1:2">
       <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="61" ht="23.1" customHeight="1" spans="1:2">
       <c r="A61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" ht="23.1" customHeight="1" spans="1:2">
       <c r="A62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" ht="23.1" customHeight="1" spans="1:2">
       <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" ht="23.1" customHeight="1" spans="1:2">
       <c r="A64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" ht="23.1" customHeight="1" spans="1:2">
       <c r="A65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" ht="23.1" customHeight="1" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>72</v>
@@ -2065,65 +2119,115 @@
     </row>
     <row r="67" ht="23.1" customHeight="1" spans="1:2">
       <c r="A67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" ht="23.1" customHeight="1" spans="1:2">
       <c r="A68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" ht="23.1" customHeight="1" spans="1:2">
       <c r="A69" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="70" ht="23.1" customHeight="1" spans="1:2">
       <c r="A70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="71" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A80" s="5"/>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="81" ht="23.1" customHeight="1" spans="1:1">
       <c r="A81" s="5"/>

--- a/tests/artifact/data/Invoice.data.xlsx
+++ b/tests/artifact/data/Invoice.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
   <si>
     <t>schema.path</t>
   </si>
@@ -485,6 +485,30 @@
   </si>
   <si>
     <t>For Profit</t>
+  </si>
+  <si>
+    <t>negative.inv</t>
+  </si>
+  <si>
+    <t>, ,%?,Gnukhata_id,@?$1,!@#$%.?,invalid,12str,v2.1,+</t>
+  </si>
+  <si>
+    <t>negative.type</t>
+  </si>
+  <si>
+    <t>, ,%?,Gnukhata_id,@?$1,!@#$%.?,invalid,12str,v2.1,-</t>
+  </si>
+  <si>
+    <t>calculateFrom</t>
+  </si>
+  <si>
+    <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>calculateTo</t>
+  </si>
+  <si>
+    <t>31-03-2023</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1613,7 @@
   <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A82" sqref="$A82:$XFD82"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -2254,17 +2278,37 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A86" s="5"/>
+    <row r="83" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="87" ht="23.1" customHeight="1" spans="1:1">
       <c r="A87" s="5"/>
@@ -2359,157 +2403,225 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0" objects="1"/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A24,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="16" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="17" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="36" stopIfTrue="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A25,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="52" stopIfTrue="1">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A30,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="58" stopIfTrue="1">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="60">
       <formula>LEN(TRIM(B30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="30" stopIfTrue="1">
       <formula>LEN(TRIM(A81))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A81,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:E81">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="32">
       <formula>LEN(TRIM(B81))&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="31" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(A82))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A82,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A82,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A82,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="24">
+      <formula>LEN(TRIM(B82))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:E82">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
+      <formula>LEN(TRIM(C82))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="25" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+      <formula>LEN(TRIM(B83))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(B84))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:A23">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="46" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A83))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A83,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A83,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A83,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A86">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A85,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B23">
+    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="48">
+      <formula>LEN(TRIM(B20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B25">
+    <cfRule type="expression" dxfId="4" priority="53" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="54">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85:B86">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B82))&gt;0</formula>
+      <formula>LEN(TRIM(B85))&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:E82">
+  <conditionalFormatting sqref="A1:A19 A26:A29 A31:A80 A87:A1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="64" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E19 C20:E25 B26:E29 C30:E30 B31:E80 B87:E1048576">
+    <cfRule type="expression" dxfId="4" priority="65" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="68">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83:E84">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="18">
+      <formula>LEN(TRIM(C83))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:E86">
     <cfRule type="notContainsBlanks" dxfId="5" priority="8">
-      <formula>LEN(TRIM(C82))&gt;0</formula>
+      <formula>LEN(TRIM(C85))&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A23">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A20,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="28" stopIfTrue="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B23">
-    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
-      <formula>LEN(TRIM(B20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 A26:A29 A31:A80 A83:A1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="46" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E19 C20:E25 B26:E29 C30:E30 B31:E80 B83:E1048576">
-    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/artifact/data/Invoice.data.xlsx
+++ b/tests/artifact/data/Invoice.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,20 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -400,39 +413,39 @@
     <t>invtype</t>
   </si>
   <si>
+    <t>cancel.invid</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>InputDate</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>unbilledtype</t>
+  </si>
+  <si>
+    <t>invoice,rejectionnote</t>
+  </si>
+  <si>
     <t>invid</t>
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>cancel.invid</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>InputDate</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>unbilledtype</t>
-  </si>
-  <si>
-    <t>invoice,rejectionnote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,19 +481,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,10 +524,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,16 +548,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,8 +571,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,32 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,36 +608,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -625,49 +638,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,133 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,24 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -863,6 +858,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,17 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,15 +906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,153 +924,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,52 +1128,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1523,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -2230,9 +2243,6 @@
     <row r="115" ht="23.1" customHeight="1" spans="1:1">
       <c r="A115" s="5"/>
     </row>
-    <row r="116" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A116" s="5"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0" objects="1"/>
   <conditionalFormatting sqref="A24">
